--- a/Project Folder/resources/Book1.xlsx
+++ b/Project Folder/resources/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trana\OneDrive - Aalto University\Bayesian\New Project 2\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi-my.sharepoint.com/personal/quan_tran_aalto_fi/Documents/Bayesian/Project Folder/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044680AD-1149-4616-80C9-A992071A096E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{044680AD-1149-4616-80C9-A992071A096E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA6755CC-1A39-4EDE-991D-A599C30AF63C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0F27DC7F-3F75-4D4A-AD4F-032477D25AB2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>Table 1: Descriptions of all features in the datapoints</t>
   </si>
@@ -195,6 +195,135 @@
   </si>
   <si>
     <t>PC2</t>
+  </si>
+  <si>
+    <t>Table 2: Chi-square tests results</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>repeat_retailer vs used_chip</t>
+  </si>
+  <si>
+    <t>repeat_retailer vs used_pin_number</t>
+  </si>
+  <si>
+    <t>repeat_retailer vs online_order</t>
+  </si>
+  <si>
+    <t>repeat_retailer vs fraud</t>
+  </si>
+  <si>
+    <t>used_chip vs used_pin_number</t>
+  </si>
+  <si>
+    <t>used_chip vs online_order</t>
+  </si>
+  <si>
+    <t>used_chip vs fraud</t>
+  </si>
+  <si>
+    <t>used_pin_number vs online_order</t>
+  </si>
+  <si>
+    <t>used_pin_number vs fraud</t>
+  </si>
+  <si>
+    <t>online_order vs fraud</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Reject Null</t>
+  </si>
+  <si>
+    <t>No Evidence</t>
+  </si>
+  <si>
+    <t>### 1. **Distance from Home**</t>
+  </si>
+  <si>
+    <t>- **Range**: The `distance_from_home` varies considerably, from a minimum of 0.085 to a maximum of 1174.47. This wide range suggests highly variable behavior among customers in terms of how far they transact from home.</t>
+  </si>
+  <si>
+    <t>- **Central Tendency**: The mean distance is significantly higher than the median (26.524 vs. 10.127), indicating a right-skewed distribution. This skewness suggests that while most transactions occur relatively close to home, there are a few transactions that are very far from home, pulling the mean up.</t>
+  </si>
+  <si>
+    <t>### 2. **Distance from Last Transaction**</t>
+  </si>
+  <si>
+    <t>- **Range**: The range from 0.0016 to 322.4373 also indicates a wide variability in how far the current transaction occurs from the last transaction location.</t>
+  </si>
+  <si>
+    <t>- **Central Tendency**: Similar to the `distance_from_home`, the mean is greater than the median (4.7346 vs. 0.9793), suggesting a right-skewed distribution. Most transactions occur relatively close to the last transaction, with some notable exceptions.</t>
+  </si>
+  <si>
+    <t>### 3. **Ratio to Median Purchase Price**</t>
+  </si>
+  <si>
+    <t>- **Range**: The values range from 0.01722 to 51.86380, indicating some transactions are mere fractions compared to the median purchase price, while others are substantially higher.</t>
+  </si>
+  <si>
+    <t>- **Central Tendency**: The median is closer to 1 (1.03075), suggesting that a typical transaction is around the median purchase price, but the mean (1.89885) being higher than the median reflects that there are also significantly larger transactions occasionally.</t>
+  </si>
+  <si>
+    <t>### 4. **Repeat Retailer**</t>
+  </si>
+  <si>
+    <t>- **Binary Variable**: This is a binary indicator (0 or 1), with most transactions (mean of 0.8833) occurring with a retailer previously used by the customer (88.33%).</t>
+  </si>
+  <si>
+    <t>### 5. **Used Chip**</t>
+  </si>
+  <si>
+    <t>- **Binary Variable**: 35.67% of transactions involve a chip, suggesting a significant portion of transactions still do not use chip technology, which is considered more secure.</t>
+  </si>
+  <si>
+    <t>### 6. **Used Pin Number**</t>
+  </si>
+  <si>
+    <t>- **Binary Variable**: Only about 10.48% of transactions use a PIN, which could be a security concern depending on the context of these transactions.</t>
+  </si>
+  <si>
+    <t>### 7. **Online Order**</t>
+  </si>
+  <si>
+    <t>- **Binary Variable**: Approximately 64.38% of transactions are online, highlighting a significant preference or need for online transactions in this dataset.</t>
+  </si>
+  <si>
+    <t>### 8. **Fraud**</t>
+  </si>
+  <si>
+    <t>- **Categorical Distribution**: Out of the total, 183 transactions are marked as fraudulent (about 8.7%), which is critical information for assessing the security and integrity of the transaction process.</t>
+  </si>
+  <si>
+    <t>### Insights and Implications:</t>
+  </si>
+  <si>
+    <t>- **Security Features Utilization**: A relatively low usage of chip and PIN in transactions might indicate areas where security measures could be enhanced.</t>
+  </si>
+  <si>
+    <t>- **Fraud Occurrence**: The rate of fraud needs to be investigated further to understand its correlations with factors like transaction distance, online/offline mode, and whether a chip or PIN was used.</t>
+  </si>
+  <si>
+    <t>- **Transaction Patterns**: The data on transaction distances could be further analyzed to understand customer behavior patterns or to detect any anomalies that might suggest fraudulent activity.</t>
+  </si>
+  <si>
+    <t>### Suggested Further Analysis:</t>
+  </si>
+  <si>
+    <t>- **Correlation Analysis**: Determine how these factors relate to fraud. For example, are distant transactions or those not using a chip or PIN more likely to be fraudulent?</t>
+  </si>
+  <si>
+    <t>- **Geographic Analysis**: Examine whether the distance metrics correlate with specific geographic areas that might be prone to higher fraud rates.</t>
+  </si>
+  <si>
+    <t>- **Temporal Analysis**: Consider whether the time between transactions (`distance_from_last_transaction`) relates to the likelihood of fraud.</t>
   </si>
 </sst>
 </file>
@@ -241,7 +370,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +383,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -462,12 +597,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -486,9 +726,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -515,32 +752,94 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -876,22 +1175,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE103D7-0C0C-4BDC-A2EF-D9403B920E5A}">
-  <dimension ref="B8:V33"/>
+  <dimension ref="B8:AO62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" topLeftCell="X15" zoomScale="84" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27:AA62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="38.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="68.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="38.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="10" customWidth="1"/>
+    <col min="8" max="34" width="9.109375" style="1"/>
+    <col min="35" max="35" width="29.5546875" style="32" customWidth="1"/>
+    <col min="36" max="36" width="9.77734375" style="32" customWidth="1"/>
+    <col min="37" max="37" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -903,31 +1206,31 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="5"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:41" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="2"/>
@@ -935,7 +1238,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -945,7 +1248,7 @@
       <c r="F11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="2"/>
@@ -953,7 +1256,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -971,7 +1274,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -989,7 +1292,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1007,7 +1310,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1025,7 +1328,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1050,8 +1353,17 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+    </row>
+    <row r="17" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1076,8 +1388,19 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+    </row>
+    <row r="18" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1096,16 +1419,31 @@
       <c r="K18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="15" t="s">
+      <c r="Q18" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ18" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK18" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+    </row>
+    <row r="19" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1124,18 +1462,33 @@
       <c r="K19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="18" t="s">
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="U19" s="17" t="s">
+      <c r="U19" s="16" t="s">
         <v>52</v>
       </c>
       <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ19" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="AK19" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+    </row>
+    <row r="20" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1154,20 +1507,35 @@
       <c r="K20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="19" t="s">
+      <c r="Q20" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="R20" s="19"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="21">
+      <c r="R20" s="27"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="18">
         <v>1.2746999999999999</v>
       </c>
-      <c r="U20" s="22">
+      <c r="U20" s="19">
         <v>0.61250000000000004</v>
       </c>
       <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ20" s="47">
+        <v>0.17</v>
+      </c>
+      <c r="AK20" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+    </row>
+    <row r="21" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1186,20 +1554,35 @@
       <c r="K21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="23"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="25">
+      <c r="R21" s="29"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="20">
         <v>0.81240000000000001</v>
       </c>
-      <c r="U21" s="26">
+      <c r="U21" s="21">
         <v>0.18759999999999999</v>
       </c>
       <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ21" s="48">
+        <v>0.27</v>
+      </c>
+      <c r="AK21" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+    </row>
+    <row r="22" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1218,20 +1601,35 @@
       <c r="K22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="27" t="s">
+      <c r="Q22" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="R22" s="27"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="29">
+      <c r="R22" s="25"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="22">
         <v>0.81240000000000001</v>
       </c>
-      <c r="U22" s="30">
+      <c r="U22" s="23">
         <v>1</v>
       </c>
       <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ22" s="48">
+        <v>0.67</v>
+      </c>
+      <c r="AK22" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+    </row>
+    <row r="23" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1256,8 +1654,23 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ23" s="48">
+        <v>0.36</v>
+      </c>
+      <c r="AK23" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+    </row>
+    <row r="24" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1282,8 +1695,23 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ24" s="48">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AK24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+    </row>
+    <row r="25" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1308,8 +1736,23 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ25" s="48">
+        <v>0.18</v>
+      </c>
+      <c r="AK25" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+    </row>
+    <row r="26" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1334,8 +1777,23 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ26" s="48">
+        <v>0.79</v>
+      </c>
+      <c r="AK26" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+    </row>
+    <row r="27" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1352,8 +1810,26 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AA27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ27" s="49">
+        <v>1.0865109999999999E-5</v>
+      </c>
+      <c r="AK27" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+    </row>
+    <row r="28" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1370,8 +1846,26 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AA28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ28" s="50">
+        <v>3.4169550000000001E-19</v>
+      </c>
+      <c r="AK28" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+    </row>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1388,8 +1882,20 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AA29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="33"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+    </row>
+    <row r="30" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1406,8 +1912,17 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="33"/>
+      <c r="AK30" s="34"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+    </row>
+    <row r="31" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1418,8 +1933,20 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AA31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="33"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+    </row>
+    <row r="32" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1430,8 +1957,20 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="AA32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="34"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+    </row>
+    <row r="33" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1442,9 +1981,205 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
+      <c r="AA33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="33"/>
+      <c r="AK33" s="34"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+    </row>
+    <row r="34" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="33"/>
+      <c r="AK34" s="34"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+    </row>
+    <row r="35" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AA35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="34"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+    </row>
+    <row r="36" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AA36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+    </row>
+    <row r="37" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AA37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
+      <c r="AK37" s="34"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+    </row>
+    <row r="38" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="33"/>
+      <c r="AK38" s="34"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+    </row>
+    <row r="39" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AA39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="34"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+    </row>
+    <row r="40" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AA40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="35"/>
+      <c r="AK40" s="34"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+    </row>
+    <row r="41" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+    </row>
+    <row r="42" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AA42" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AA43" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AA45" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AA46" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="AA48" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA49" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA51" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA52" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA54" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA55" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA56" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA57" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA59" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA60" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA61" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA62" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AI17:AJ17"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="Q20:S20"/>
